--- a/reports/weighted_voting.xlsx
+++ b/reports/weighted_voting.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus\materiale tesi\progetto_klara_valerio\INPH_2\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12251212-FB25-4996-9342-9FCE7D842F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2052" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>ACC MEDIA</t>
+    <t>accuracy</t>
   </si>
   <si>
-    <t>ACC MAJ VOTING</t>
+    <t>precision</t>
   </si>
   <si>
-    <t xml:space="preserve">                        FOLD</t>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>F_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,31 +87,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,117 +385,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.69565217391304346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="C3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E3">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="F3">
+        <v>0.7407407407407408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.63636363636363635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C4">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D4">
+        <v>0.8125</v>
+      </c>
+      <c r="E4">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F4">
+        <v>0.8666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="C5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+      <c r="C6">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D6">
+        <v>0.6875</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.7586206896551724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.85</v>
+      </c>
+      <c r="C7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D7">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E7">
+        <v>0.75</v>
+      </c>
+      <c r="F7">
+        <v>0.8799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F8">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.76190476190476186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C9">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E9">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F9">
+        <v>0.7692307692307692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="C10">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D10">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="E10">
+        <v>0.625</v>
+      </c>
+      <c r="F10">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C11">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D11">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E11">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F11">
+        <v>0.896551724137931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.76017127799736495</v>
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C12">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="D12">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.8749999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.7601712779973649</v>
+      </c>
+      <c r="C13">
+        <v>0.822087912087912</v>
+      </c>
+      <c r="D13">
+        <v>0.8191111829347124</v>
+      </c>
+      <c r="E13">
+        <v>0.6609343434343434</v>
+      </c>
+      <c r="F13">
+        <v>0.8173053976674666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>